--- a/results/comparaison/GM/azimuth/mean_raw_data.xlsx
+++ b/results/comparaison/GM/azimuth/mean_raw_data.xlsx
@@ -679,716 +679,830 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>106.2824660104702</v>
+      </c>
+      <c r="C2">
+        <v>82.1971002123119</v>
+      </c>
+      <c r="D2">
+        <v>75.2001160958023</v>
+      </c>
+      <c r="E2">
         <v>105.9483395244888</v>
       </c>
-      <c r="C2">
+      <c r="F2">
+        <v>57.93766314579849</v>
+      </c>
+      <c r="G2">
+        <v>100.0864075216535</v>
+      </c>
+      <c r="H2">
+        <v>79.39322075814863</v>
+      </c>
+      <c r="I2">
+        <v>116.4774568856974</v>
+      </c>
+      <c r="J2">
         <v>102.4221141090063</v>
       </c>
-      <c r="D2">
-        <v>86.77905975645663</v>
-      </c>
-      <c r="E2">
-        <v>63.71323202716731</v>
-      </c>
-      <c r="F2">
+      <c r="K2">
         <v>63.90142197207384</v>
       </c>
-      <c r="G2">
-        <v>105.2860943114426</v>
-      </c>
-      <c r="H2">
+      <c r="L2">
+        <v>53.54661988445575</v>
+      </c>
+      <c r="M2">
+        <v>65.97308210698307</v>
+      </c>
+      <c r="N2">
         <v>114.233755589989</v>
       </c>
-      <c r="I2">
+      <c r="O2">
         <v>132.1824437078851</v>
       </c>
-      <c r="J2">
+      <c r="P2">
         <v>60.3353232447056</v>
       </c>
-      <c r="K2">
-        <v>37.19775007216104</v>
-      </c>
-      <c r="L2">
-        <v>85.23790620006068</v>
-      </c>
-      <c r="M2">
-        <v>57.93766314579849</v>
-      </c>
-      <c r="N2">
+      <c r="Q2">
         <v>86.89784624409326</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>114.9368402654547</v>
       </c>
-      <c r="P2">
-        <v>59.29374648183268</v>
-      </c>
-      <c r="Q2">
-        <v>77.78966134446405</v>
-      </c>
-      <c r="R2">
-        <v>64.27642309647914</v>
-      </c>
       <c r="S2">
-        <v>112.310646683883</v>
+        <v>38.34480534772092</v>
       </c>
       <c r="T2">
-        <v>70.49711704644793</v>
+        <v>155.6507151825871</v>
       </c>
       <c r="U2">
-        <v>100.0864075216535</v>
+        <v>114.618443395839</v>
       </c>
       <c r="V2">
-        <v>73.35732690041414</v>
+        <v>102.3886943096107</v>
       </c>
       <c r="W2">
-        <v>106.4029388011465</v>
+        <v>83.95512822936389</v>
       </c>
       <c r="X2">
-        <v>79.39322075814863</v>
+        <v>47.52336855884563</v>
       </c>
       <c r="Y2">
-        <v>68.7148996505579</v>
+        <v>79.15209707888081</v>
       </c>
       <c r="Z2">
-        <v>116.4774568856974</v>
+        <v>75.35591884166115</v>
       </c>
       <c r="AA2">
-        <v>127.6784373676917</v>
+        <v>93.1510670339822</v>
       </c>
       <c r="AB2">
-        <v>81.43413618378378</v>
+        <v>116.9220190033526</v>
       </c>
       <c r="AC2">
-        <v>105.2258470731767</v>
+        <v>141.4028814408389</v>
       </c>
       <c r="AD2">
-        <v>82.06314436296738</v>
+        <v>114.6215461239112</v>
       </c>
       <c r="AE2">
-        <v>131.3875046282506</v>
+        <v>119.1507615403197</v>
       </c>
       <c r="AF2">
-        <v>72.10019755006772</v>
+        <v>122.5046517644081</v>
       </c>
       <c r="AG2">
-        <v>136.8537928680678</v>
+        <v>134.150870470903</v>
       </c>
       <c r="AH2">
-        <v>130.1573265757075</v>
+        <v>122.3031668079344</v>
       </c>
       <c r="AI2">
-        <v>54.74268041158361</v>
+        <v>58.69828672236942</v>
       </c>
       <c r="AJ2">
-        <v>128.5508965233795</v>
+        <v>58.54856621498269</v>
       </c>
       <c r="AK2">
-        <v>91.17755473325836</v>
+        <v>88.33242185246633</v>
       </c>
       <c r="AL2">
-        <v>57.75801417097779</v>
+        <v>134.7307853588433</v>
       </c>
       <c r="AM2">
-        <v>101.6932552229343</v>
+        <v>49.09004110441794</v>
       </c>
       <c r="AN2">
-        <v>122.6733449935595</v>
+        <v>130.3255195738357</v>
       </c>
       <c r="AO2">
-        <v>70.38550444664739</v>
+        <v>115.3517942541437</v>
       </c>
       <c r="AP2">
-        <v>93.07064303464318</v>
+        <v>116.8025795595173</v>
       </c>
       <c r="AQ2">
-        <v>132.9664360067521</v>
+        <v>73.80748322913405</v>
       </c>
       <c r="AR2">
-        <v>131.0710493357097</v>
+        <v>85.69948288208839</v>
       </c>
       <c r="AS2">
-        <v>117.2318350446602</v>
+        <v>96.8547984128497</v>
       </c>
       <c r="AT2">
-        <v>106.814360222122</v>
+        <v>120.3492167380239</v>
       </c>
       <c r="AU2">
-        <v>115.0836243285125</v>
+        <v>44.54521816678145</v>
       </c>
       <c r="AV2">
-        <v>98.72603637380509</v>
+        <v>33.88941493694255</v>
       </c>
       <c r="AW2">
-        <v>113.1596142589205</v>
+        <v>126.8104112654546</v>
       </c>
       <c r="AX2">
-        <v>72.87391301880888</v>
+        <v>40.52670174890867</v>
       </c>
       <c r="AY2">
-        <v>82.08800474281004</v>
+        <v>145.3327174917353</v>
       </c>
       <c r="AZ2">
-        <v>130.5746124308157</v>
+        <v>71.62815160474771</v>
       </c>
       <c r="BA2">
-        <v>117.6409094429134</v>
+        <v>112.6794759045828</v>
       </c>
       <c r="BB2">
-        <v>138.1421601335857</v>
+        <v>54.8249445795982</v>
       </c>
       <c r="BC2">
-        <v>92.56457658459389</v>
+        <v>137.4169145725487</v>
       </c>
       <c r="BD2">
-        <v>97.46080716286698</v>
+        <v>38.52787710848288</v>
       </c>
       <c r="BE2">
-        <v>97.95251971758309</v>
+        <v>103.3066811843703</v>
       </c>
       <c r="BF2">
-        <v>138.5278574356687</v>
+        <v>66.39154417427562</v>
       </c>
       <c r="BG2">
-        <v>97.38436894168652</v>
+        <v>52.32711366124258</v>
       </c>
       <c r="BH2">
-        <v>140.3782194472068</v>
+        <v>77.98079721925404</v>
       </c>
       <c r="BI2">
-        <v>63.74696535481124</v>
+        <v>115.261628253955</v>
       </c>
       <c r="BJ2">
-        <v>97.13587577266382</v>
+        <v>31.38923826069722</v>
       </c>
       <c r="BK2">
-        <v>62.77956948807785</v>
+        <v>113.6537960473503</v>
       </c>
       <c r="BL2">
-        <v>81.13648155521334</v>
+        <v>35.77178542622356</v>
       </c>
       <c r="BM2">
-        <v>37.78246466621098</v>
+        <v>159.9786535971784</v>
       </c>
       <c r="BN2">
-        <v>66.04684104260312</v>
+        <v>77.03488185718277</v>
       </c>
       <c r="BO2">
-        <v>78.7466239781721</v>
+        <v>103.7146444303718</v>
       </c>
       <c r="BP2">
-        <v>108.1982334397665</v>
+        <v>104.2415397183783</v>
       </c>
       <c r="BQ2">
-        <v>66.96288014419756</v>
+        <v>158.7491803502748</v>
       </c>
       <c r="BR2">
-        <v>41.49064691282456</v>
+        <v>81.88216743093203</v>
       </c>
       <c r="BS2">
-        <v>41.27313059491264</v>
+        <v>27.44804029776615</v>
       </c>
       <c r="BT2">
-        <v>136.746977414085</v>
+        <v>76.53883602952388</v>
       </c>
       <c r="BU2">
-        <v>28.45952055473157</v>
+        <v>149.7274044254918</v>
       </c>
       <c r="BV2">
-        <v>36.33051912020198</v>
+        <v>85.40345413494035</v>
       </c>
       <c r="BW2">
-        <v>40.60559360967012</v>
+        <v>86.95046758560335</v>
       </c>
       <c r="BX2">
-        <v>133.6883812405144</v>
+        <v>37.22523758552865</v>
       </c>
       <c r="BY2">
-        <v>83.16968125037738</v>
+        <v>51.31925635808611</v>
       </c>
       <c r="BZ2">
-        <v>53.27876400588726</v>
+        <v>125.5999613187702</v>
       </c>
       <c r="CA2">
-        <v>33.75596189011169</v>
+        <v>35.06683727304334</v>
       </c>
       <c r="CB2">
-        <v>104.5293679360619</v>
+        <v>26.71924539351123</v>
       </c>
       <c r="CC2">
-        <v>79.19380969206345</v>
+        <v>84.42263574583795</v>
       </c>
       <c r="CD2">
-        <v>110.6413244793367</v>
+        <v>21.58683173605976</v>
       </c>
       <c r="CE2">
-        <v>21.41851878147265</v>
+        <v>95.068252256261</v>
       </c>
       <c r="CF2">
-        <v>77.5759560164685</v>
+        <v>72.14658614297041</v>
       </c>
       <c r="CG2">
-        <v>86.75931614541223</v>
+        <v>43.15668663691593</v>
       </c>
       <c r="CH2">
-        <v>23.58976528063246</v>
+        <v>108.4104894561369</v>
       </c>
       <c r="CI2">
-        <v>112.1183787320769</v>
+        <v>91.02277219395268</v>
       </c>
       <c r="CJ2">
-        <v>105.9056696827701</v>
+        <v>73.02455303050958</v>
       </c>
       <c r="CK2">
-        <v>24.65077847960153</v>
+        <v>95.46426211829548</v>
       </c>
       <c r="CL2">
-        <v>135.1531846979598</v>
+        <v>83.84385281464323</v>
       </c>
       <c r="CM2">
-        <v>119.7650039507738</v>
+        <v>61.68576030299706</v>
       </c>
       <c r="CN2">
-        <v>106.4278631362951</v>
+        <v>130.6398637374012</v>
       </c>
       <c r="CO2">
-        <v>96.73182386175633</v>
+        <v>122.5252100493638</v>
       </c>
       <c r="CP2">
-        <v>113.6532553046873</v>
+        <v>116.8537590091287</v>
       </c>
       <c r="CQ2">
-        <v>24.49894470698678</v>
+        <v>154.5961354787096</v>
       </c>
       <c r="CR2">
-        <v>145.5418618572971</v>
+        <v>66.06283727986704</v>
       </c>
       <c r="CS2">
-        <v>71.22278004980573</v>
+        <v>72.78641412027363</v>
       </c>
       <c r="CT2">
-        <v>125.5506770336008</v>
+        <v>101.1384640211928</v>
       </c>
       <c r="CU2">
-        <v>116.5084692971896</v>
+        <v>21.07596429515021</v>
       </c>
       <c r="CV2">
-        <v>156.8155459861329</v>
+        <v>123.9461289537755</v>
       </c>
       <c r="CW2">
-        <v>98.56448511739084</v>
+        <v>98.30431388226378</v>
       </c>
     </row>
     <row r="3" spans="1:101">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
+        <v>121.7016690798977</v>
+      </c>
+      <c r="D3">
+        <v>101.4876709320223</v>
+      </c>
+      <c r="E3">
         <v>124.6848018888658</v>
       </c>
-      <c r="C3">
+      <c r="H3">
+        <v>123.4164664734087</v>
+      </c>
+      <c r="I3">
+        <v>121.0684279464541</v>
+      </c>
+      <c r="J3">
         <v>78.22759643403784</v>
       </c>
-      <c r="D3">
-        <v>103.6076544076474</v>
-      </c>
-      <c r="E3">
-        <v>115.8383882485629</v>
-      </c>
-      <c r="F3">
+      <c r="K3">
         <v>109.3531307603411</v>
       </c>
-      <c r="G3">
-        <v>127.5732364619127</v>
-      </c>
-      <c r="H3">
+      <c r="L3">
+        <v>136.0713534310355</v>
+      </c>
+      <c r="M3">
+        <v>110.5786996461965</v>
+      </c>
+      <c r="N3">
         <v>107.4193217609136</v>
       </c>
-      <c r="I3">
+      <c r="O3">
         <v>138.1656147806729</v>
       </c>
-      <c r="L3">
-        <v>104.6762957524031</v>
-      </c>
-      <c r="N3">
-        <v>85.07350504922876</v>
-      </c>
       <c r="P3">
-        <v>113.5857457992643</v>
-      </c>
-      <c r="R3">
-        <v>112.5458545093146</v>
-      </c>
-      <c r="S3">
-        <v>138.7507874385137</v>
+        <v>131.8476605950092</v>
+      </c>
+      <c r="Q3">
+        <v>85.39759090076942</v>
       </c>
       <c r="T3">
-        <v>105.7012739871084</v>
+        <v>149.0490614326913</v>
+      </c>
+      <c r="U3">
+        <v>122.4097324096128</v>
       </c>
       <c r="V3">
-        <v>97.3263508947704</v>
-      </c>
-      <c r="X3">
-        <v>123.4164664734087</v>
+        <v>125.1211371674724</v>
+      </c>
+      <c r="W3">
+        <v>85.75707422955995</v>
       </c>
       <c r="Y3">
-        <v>107.8271600560939</v>
+        <v>119.3694499885223</v>
       </c>
       <c r="Z3">
-        <v>121.0684279464541</v>
-      </c>
-      <c r="AB3">
-        <v>114.1020212971085</v>
+        <v>113.6674626955508</v>
+      </c>
+      <c r="AA3">
+        <v>80.81809313600226</v>
       </c>
       <c r="AC3">
-        <v>107.4798688904424</v>
+        <v>144.7524722403001</v>
       </c>
       <c r="AD3">
-        <v>104.4457263898085</v>
-      </c>
-      <c r="AE3">
-        <v>123.4820603751267</v>
+        <v>117.5118007550604</v>
       </c>
       <c r="AF3">
-        <v>74.79425241660338</v>
+        <v>122.7796266390348</v>
       </c>
       <c r="AG3">
-        <v>142.8711481120623</v>
-      </c>
-      <c r="AH3">
-        <v>130.7932135977961</v>
+        <v>88.39139492930326</v>
       </c>
       <c r="AI3">
-        <v>84.33317039441529</v>
+        <v>87.99926819269042</v>
       </c>
       <c r="AJ3">
-        <v>120.183826997798</v>
+        <v>79.96405741368434</v>
+      </c>
+      <c r="AK3">
+        <v>86.99734408072121</v>
       </c>
       <c r="AL3">
-        <v>82.97342676229654</v>
+        <v>140.1521955800925</v>
+      </c>
+      <c r="AM3">
+        <v>72.252989899377</v>
       </c>
       <c r="AN3">
-        <v>120.6818812239352</v>
+        <v>120.2610016612398</v>
       </c>
       <c r="AO3">
-        <v>98.74334138468298</v>
+        <v>116.5834954596127</v>
       </c>
       <c r="AP3">
-        <v>131.4304702282275</v>
+        <v>136.2835176098404</v>
       </c>
       <c r="AQ3">
-        <v>149.3590292842209</v>
+        <v>113.9316917755544</v>
       </c>
       <c r="AR3">
-        <v>119.2075593497674</v>
+        <v>115.8552721153909</v>
       </c>
       <c r="AT3">
-        <v>68.29111744348791</v>
+        <v>125.3066432850676</v>
+      </c>
+      <c r="AU3">
+        <v>114.4501112543371</v>
       </c>
       <c r="AV3">
-        <v>128.713812488627</v>
+        <v>75.77558890011811</v>
       </c>
       <c r="AW3">
-        <v>109.5175560439655</v>
+        <v>123.5738783526258</v>
       </c>
       <c r="AX3">
-        <v>93.31485959159288</v>
+        <v>96.366547333414</v>
       </c>
       <c r="AY3">
-        <v>132.4745080089801</v>
-      </c>
-      <c r="AZ3">
-        <v>118.3421377171782</v>
+        <v>118.125237569139</v>
       </c>
       <c r="BA3">
-        <v>102.156807898881</v>
+        <v>46.87183120160221</v>
       </c>
       <c r="BB3">
-        <v>155.0956127934028</v>
+        <v>104.1605885834898</v>
       </c>
       <c r="BC3">
-        <v>86.98977761953019</v>
+        <v>117.7295217948584</v>
       </c>
       <c r="BD3">
-        <v>97.5475993384908</v>
+        <v>61.76411438747098</v>
       </c>
       <c r="BE3">
-        <v>107.0880912095841</v>
+        <v>95.92337165033361</v>
       </c>
       <c r="BF3">
-        <v>144.2786482129611</v>
-      </c>
-      <c r="BG3">
-        <v>120.8222412843209</v>
+        <v>109.9073632570234</v>
       </c>
       <c r="BH3">
-        <v>136.3728211516635</v>
+        <v>77.00891185663953</v>
       </c>
       <c r="BI3">
-        <v>105.8062405678635</v>
+        <v>97.44575471944709</v>
       </c>
       <c r="BJ3">
-        <v>101.3413833059529</v>
+        <v>41.18733981321625</v>
+      </c>
+      <c r="BK3">
+        <v>139.2478804901378</v>
       </c>
       <c r="BL3">
-        <v>74.50042582561758</v>
-      </c>
-      <c r="BM3">
-        <v>58.04557208944102</v>
+        <v>66.45510955997514</v>
+      </c>
+      <c r="BN3">
+        <v>86.13241191228161</v>
+      </c>
+      <c r="BO3">
+        <v>124.9490848314476</v>
+      </c>
+      <c r="BP3">
+        <v>114.4653716278024</v>
       </c>
       <c r="BQ3">
-        <v>116.4345282611921</v>
+        <v>113.6147981048357</v>
       </c>
       <c r="BR3">
-        <v>89.20967485328414</v>
+        <v>70.59231191545823</v>
       </c>
       <c r="BS3">
-        <v>142.5901983071807</v>
+        <v>67.58362422525745</v>
       </c>
       <c r="BT3">
-        <v>99.15731544627808</v>
+        <v>80.02062910932894</v>
       </c>
       <c r="BU3">
-        <v>56.31828283342698</v>
+        <v>88.98452774836396</v>
       </c>
       <c r="BV3">
-        <v>58.03697274181852</v>
+        <v>102.8146361885057</v>
       </c>
       <c r="BW3">
-        <v>66.22091965018436</v>
+        <v>86.408558627296</v>
       </c>
       <c r="BX3">
-        <v>87.71481622472257</v>
-      </c>
-      <c r="CA3">
-        <v>65.3331822568224</v>
+        <v>73.98911897768404</v>
+      </c>
+      <c r="BY3">
+        <v>92.44705154054212</v>
+      </c>
+      <c r="BZ3">
+        <v>123.0154928537119</v>
       </c>
       <c r="CB3">
-        <v>122.0510831334939</v>
+        <v>50.3121749326258</v>
+      </c>
+      <c r="CC3">
+        <v>111.520278304911</v>
       </c>
       <c r="CD3">
-        <v>123.6907254002492</v>
+        <v>82.95261576062208</v>
       </c>
       <c r="CE3">
-        <v>37.81547871342623</v>
+        <v>115.2751876593492</v>
       </c>
       <c r="CF3">
-        <v>98.67206067724426</v>
+        <v>112.9398542830747</v>
+      </c>
+      <c r="CG3">
+        <v>65.79676419688808</v>
       </c>
       <c r="CH3">
-        <v>57.01988820614422</v>
+        <v>119.4290710063318</v>
+      </c>
+      <c r="CI3">
+        <v>99.3151196542356</v>
       </c>
       <c r="CK3">
-        <v>49.37694964525915</v>
+        <v>113.8806234177714</v>
+      </c>
+      <c r="CL3">
+        <v>115.7636431832893</v>
       </c>
       <c r="CM3">
-        <v>126.7315587843582</v>
+        <v>81.30844922429743</v>
       </c>
       <c r="CN3">
-        <v>119.7626755229286</v>
+        <v>101.3832174615665</v>
+      </c>
+      <c r="CO3">
+        <v>120.4400453148604</v>
       </c>
       <c r="CP3">
-        <v>105.5469327989743</v>
+        <v>106.7990885291399</v>
+      </c>
+      <c r="CQ3">
+        <v>123.1520283360161</v>
+      </c>
+      <c r="CR3">
+        <v>99.98535115165031</v>
       </c>
       <c r="CS3">
-        <v>103.2167010680985</v>
+        <v>102.1185161643011</v>
+      </c>
+      <c r="CT3">
+        <v>122.3352998073272</v>
+      </c>
+      <c r="CU3">
+        <v>57.97218539063537</v>
+      </c>
+      <c r="CV3">
+        <v>130.5640663533143</v>
+      </c>
+      <c r="CW3">
+        <v>97.56432372571308</v>
       </c>
     </row>
     <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>121.2261953497723</v>
+      </c>
       <c r="C4">
+        <v>115.5522098279366</v>
+      </c>
+      <c r="D4">
+        <v>112.8547165352955</v>
+      </c>
+      <c r="E4">
+        <v>118.3023549085671</v>
+      </c>
+      <c r="H4">
+        <v>122.0187321150056</v>
+      </c>
+      <c r="I4">
+        <v>113.0181041304119</v>
+      </c>
+      <c r="J4">
         <v>73.13377588635092</v>
       </c>
-      <c r="D4">
-        <v>105.0862790711054</v>
-      </c>
-      <c r="E4">
-        <v>108.4586700156484</v>
-      </c>
-      <c r="F4">
+      <c r="K4">
         <v>104.3803358264654</v>
       </c>
-      <c r="H4">
+      <c r="L4">
+        <v>127.6468762825516</v>
+      </c>
+      <c r="M4">
+        <v>105.3713836355292</v>
+      </c>
+      <c r="N4">
         <v>120.5369296612492</v>
       </c>
-      <c r="I4">
+      <c r="O4">
         <v>137.3974398885522</v>
       </c>
-      <c r="L4">
-        <v>103.8399271044383</v>
-      </c>
-      <c r="N4">
-        <v>87.9053595771942</v>
+      <c r="P4">
+        <v>127.0050392983725</v>
       </c>
       <c r="Q4">
-        <v>111.0779317747491</v>
-      </c>
-      <c r="R4">
-        <v>101.2898000641314</v>
-      </c>
-      <c r="S4">
-        <v>131.5808615004302</v>
+        <v>88.12703794170183</v>
       </c>
       <c r="T4">
-        <v>117.4216465698622</v>
+        <v>146.0697502055762</v>
+      </c>
+      <c r="U4">
+        <v>103.5587248112981</v>
       </c>
       <c r="V4">
-        <v>112.2157765380175</v>
+        <v>123.1183127097514</v>
       </c>
       <c r="W4">
-        <v>121.6512626225913</v>
-      </c>
-      <c r="X4">
-        <v>122.0187321150056</v>
-      </c>
-      <c r="Y4">
-        <v>100.6309326125944</v>
+        <v>88.03394258368849</v>
+      </c>
+      <c r="Z4">
+        <v>107.8608038916265</v>
+      </c>
+      <c r="AA4">
+        <v>68.86775073437998</v>
       </c>
       <c r="AC4">
-        <v>116.779872500765</v>
-      </c>
-      <c r="AE4">
-        <v>127.8907371782719</v>
+        <v>131.6152576195038</v>
+      </c>
+      <c r="AD4">
+        <v>121.7592712906218</v>
       </c>
       <c r="AF4">
-        <v>92.58024717716935</v>
-      </c>
-      <c r="AH4">
-        <v>135.3025944420599</v>
+        <v>126.5444913275654</v>
+      </c>
+      <c r="AG4">
+        <v>80.0779913737945</v>
       </c>
       <c r="AI4">
-        <v>103.3453860076582</v>
+        <v>107.312230353171</v>
       </c>
       <c r="AJ4">
-        <v>130.3130918983105</v>
+        <v>94.08604455753608</v>
+      </c>
+      <c r="AK4">
+        <v>103.4364989834709</v>
       </c>
       <c r="AL4">
-        <v>93.9030302459805</v>
+        <v>141.8378289305786</v>
+      </c>
+      <c r="AM4">
+        <v>83.17760812138972</v>
+      </c>
+      <c r="AN4">
+        <v>112.398096433835</v>
       </c>
       <c r="AO4">
-        <v>110.7984816446502</v>
+        <v>122.8673509446556</v>
       </c>
       <c r="AP4">
-        <v>134.2634516208346</v>
+        <v>137.4254109360501</v>
       </c>
       <c r="AQ4">
-        <v>150.3527134133585</v>
+        <v>118.8785020577401</v>
       </c>
       <c r="AR4">
-        <v>119.4730429250545</v>
-      </c>
-      <c r="AS4">
-        <v>121.4173759026382</v>
+        <v>116.0871577859838</v>
       </c>
       <c r="AT4">
-        <v>59.46190369030533</v>
+        <v>123.7570827343703</v>
+      </c>
+      <c r="AU4">
+        <v>115.3429454539676</v>
       </c>
       <c r="AV4">
-        <v>129.1793571652946</v>
+        <v>102.4922991807127</v>
       </c>
       <c r="AW4">
-        <v>113.0286031104137</v>
+        <v>124.9309910994082</v>
       </c>
       <c r="AX4">
-        <v>108.2907219312613</v>
+        <v>110.8482028830864</v>
+      </c>
+      <c r="AY4">
+        <v>123.940525421747</v>
       </c>
       <c r="AZ4">
-        <v>112.6769928100372</v>
+        <v>84.72008288887049</v>
       </c>
       <c r="BA4">
-        <v>100.1449266243326</v>
+        <v>47.81078076318686</v>
       </c>
       <c r="BB4">
-        <v>148.0137129543234</v>
+        <v>100.3378373218629</v>
       </c>
       <c r="BC4">
-        <v>95.57958602209696</v>
+        <v>112.8863988973468</v>
       </c>
       <c r="BD4">
-        <v>94.064685261371</v>
+        <v>82.58139743576574</v>
       </c>
       <c r="BE4">
-        <v>103.3924393136754</v>
+        <v>95.13266030679731</v>
       </c>
       <c r="BF4">
-        <v>137.0070777472097</v>
-      </c>
-      <c r="BG4">
-        <v>127.2567116390865</v>
+        <v>100.8553131680792</v>
       </c>
       <c r="BH4">
-        <v>133.5128674952719</v>
+        <v>86.35587827732913</v>
       </c>
       <c r="BI4">
-        <v>97.90713212684128</v>
+        <v>100.1044798989582</v>
       </c>
       <c r="BJ4">
-        <v>100.2424437111754</v>
+        <v>44.30730468973584</v>
+      </c>
+      <c r="BK4">
+        <v>138.0174709680584</v>
       </c>
       <c r="BL4">
-        <v>88.17188201501193</v>
+        <v>79.46928263315912</v>
       </c>
       <c r="BM4">
-        <v>61.24406348403723</v>
+        <v>137.4636172691235</v>
       </c>
       <c r="BN4">
-        <v>97.43200391714451</v>
+        <v>86.68515472674024</v>
       </c>
       <c r="BO4">
-        <v>89.92143247924481</v>
+        <v>116.3147772629535</v>
+      </c>
+      <c r="BP4">
+        <v>102.4443303995354</v>
+      </c>
+      <c r="BQ4">
+        <v>123.0545565495053</v>
       </c>
       <c r="BR4">
-        <v>88.18580377771316</v>
+        <v>91.01299873320303</v>
       </c>
       <c r="BS4">
-        <v>135.7566067791211</v>
+        <v>84.15903903621003</v>
+      </c>
+      <c r="BT4">
+        <v>90.48583632939106</v>
       </c>
       <c r="BU4">
-        <v>76.38924913231139</v>
+        <v>103.9144745525946</v>
+      </c>
+      <c r="BV4">
+        <v>105.2229609508151</v>
+      </c>
+      <c r="BW4">
+        <v>86.4373920541794</v>
       </c>
       <c r="BX4">
-        <v>106.474702343882</v>
+        <v>81.64271883498525</v>
       </c>
       <c r="BY4">
-        <v>56.61595223244993</v>
-      </c>
-      <c r="CA4">
-        <v>65.87948573933986</v>
+        <v>84.93878340034679</v>
+      </c>
+      <c r="BZ4">
+        <v>103.1333546715619</v>
+      </c>
+      <c r="CB4">
+        <v>48.92834546862321</v>
+      </c>
+      <c r="CC4">
+        <v>108.7247249909036</v>
+      </c>
+      <c r="CD4">
+        <v>80.74548618981699</v>
       </c>
       <c r="CE4">
-        <v>32.29092127091432</v>
+        <v>105.1617756663339</v>
       </c>
       <c r="CF4">
-        <v>98.72485075745628</v>
+        <v>102.9691497819591</v>
+      </c>
+      <c r="CG4">
+        <v>65.93101546820843</v>
       </c>
       <c r="CH4">
-        <v>57.93776836453982</v>
+        <v>107.6027397791784</v>
       </c>
       <c r="CI4">
-        <v>111.5789283818723</v>
+        <v>98.59189255040846</v>
       </c>
       <c r="CK4">
-        <v>48.2408609764997</v>
+        <v>112.1870457307535</v>
       </c>
       <c r="CL4">
-        <v>94.48003418174476</v>
+        <v>105.6003302374783</v>
       </c>
       <c r="CM4">
-        <v>123.2984751976088</v>
+        <v>77.08391950253674</v>
       </c>
       <c r="CN4">
-        <v>108.1535879993381</v>
+        <v>88.77987265761126</v>
+      </c>
+      <c r="CO4">
+        <v>112.2106916861406</v>
       </c>
       <c r="CP4">
-        <v>88.96686525712063</v>
+        <v>107.6378395947682</v>
+      </c>
+      <c r="CQ4">
+        <v>105.704639469843</v>
+      </c>
+      <c r="CR4">
+        <v>89.44047137889876</v>
       </c>
       <c r="CS4">
-        <v>91.0547652032067</v>
+        <v>94.97622314697983</v>
+      </c>
+      <c r="CT4">
+        <v>113.6031381953012</v>
       </c>
       <c r="CU4">
-        <v>131.3708010187425</v>
+        <v>59.49330574380651</v>
+      </c>
+      <c r="CV4">
+        <v>123.1409401987584</v>
+      </c>
+      <c r="CW4">
+        <v>71.29089267556851</v>
       </c>
     </row>
     <row r="5" spans="1:101">
@@ -1396,193 +1510,262 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>130.3258429917408</v>
+      </c>
+      <c r="C5">
+        <v>118.492855444176</v>
+      </c>
+      <c r="D5">
+        <v>104.7194600684168</v>
+      </c>
+      <c r="E5">
         <v>122.5856728743836</v>
       </c>
-      <c r="C5">
+      <c r="H5">
+        <v>125.8014801030925</v>
+      </c>
+      <c r="I5">
+        <v>126.9704844640441</v>
+      </c>
+      <c r="J5">
         <v>93.31950141827215</v>
       </c>
-      <c r="D5">
-        <v>106.7512014250616</v>
-      </c>
-      <c r="F5">
+      <c r="K5">
         <v>110.3488028691372</v>
       </c>
-      <c r="G5">
-        <v>125.9561356336272</v>
-      </c>
-      <c r="H5">
+      <c r="L5">
+        <v>135.8088062100121</v>
+      </c>
+      <c r="M5">
+        <v>107.6486736321558</v>
+      </c>
+      <c r="N5">
         <v>121.811575003079</v>
       </c>
-      <c r="I5">
+      <c r="O5">
         <v>147.178620417598</v>
       </c>
-      <c r="N5">
-        <v>87.09840160371327</v>
-      </c>
-      <c r="O5">
+      <c r="P5">
+        <v>134.0284001527087</v>
+      </c>
+      <c r="Q5">
+        <v>87.42410901390693</v>
+      </c>
+      <c r="R5">
         <v>130.790097617675</v>
       </c>
-      <c r="S5">
-        <v>137.335667336333</v>
-      </c>
-      <c r="T5">
-        <v>113.2417321299369</v>
+      <c r="U5">
+        <v>86.90324733887553</v>
       </c>
       <c r="V5">
-        <v>102.8453653493701</v>
+        <v>126.9553877949172</v>
       </c>
       <c r="W5">
-        <v>129.1051474696044</v>
-      </c>
-      <c r="X5">
-        <v>125.8014801030925</v>
-      </c>
-      <c r="Y5">
-        <v>107.5932210340917</v>
+        <v>91.16639580286125</v>
       </c>
       <c r="Z5">
-        <v>126.9704844640441</v>
-      </c>
-      <c r="AB5">
-        <v>120.6411551001413</v>
+        <v>116.3388190658529</v>
+      </c>
+      <c r="AA5">
+        <v>60.95295416469291</v>
       </c>
       <c r="AC5">
-        <v>115.2671092421952</v>
-      </c>
-      <c r="AD5">
-        <v>113.6261627081946</v>
-      </c>
-      <c r="AE5">
-        <v>130.2686476137701</v>
-      </c>
-      <c r="AH5">
-        <v>138.6298725020589</v>
+        <v>151.4397360646562</v>
+      </c>
+      <c r="AF5">
+        <v>129.2095425675963</v>
+      </c>
+      <c r="AG5">
+        <v>109.6223591291598</v>
       </c>
       <c r="AI5">
-        <v>81.87904587298651</v>
+        <v>87.63210796800969</v>
       </c>
       <c r="AJ5">
-        <v>132.496942941174</v>
+        <v>84.57564748903093</v>
+      </c>
+      <c r="AK5">
+        <v>92.12838947588899</v>
       </c>
       <c r="AL5">
-        <v>75.04246524434309</v>
-      </c>
-      <c r="AO5">
-        <v>101.9493163338131</v>
+        <v>147.1146117126907</v>
+      </c>
+      <c r="AM5">
+        <v>65.9758043434733</v>
+      </c>
+      <c r="AN5">
+        <v>117.6243664132413</v>
       </c>
       <c r="AP5">
-        <v>135.9827640102937</v>
+        <v>145.8109456189092</v>
       </c>
       <c r="AQ5">
-        <v>155.688643079667</v>
+        <v>123.8414381571974</v>
       </c>
       <c r="AR5">
-        <v>118.5576975539577</v>
+        <v>114.2563750212987</v>
       </c>
       <c r="AT5">
-        <v>34.39331421941395</v>
+        <v>123.902232831346</v>
+      </c>
+      <c r="AU5">
+        <v>124.9213773284271</v>
       </c>
       <c r="AV5">
-        <v>134.1151552584351</v>
+        <v>73.68308854189306</v>
       </c>
       <c r="AW5">
-        <v>116.1623421000568</v>
+        <v>120.7790732069451</v>
       </c>
       <c r="AX5">
-        <v>92.64344949215888</v>
+        <v>103.1147643906673</v>
       </c>
       <c r="AY5">
-        <v>136.2169533808341</v>
+        <v>120.3757533833665</v>
       </c>
       <c r="AZ5">
-        <v>126.4887970816388</v>
+        <v>103.0535327952248</v>
       </c>
       <c r="BA5">
-        <v>102.6664974064229</v>
+        <v>44.87494381368963</v>
       </c>
       <c r="BB5">
-        <v>153.8076993447805</v>
+        <v>105.3408475436928</v>
       </c>
       <c r="BC5">
-        <v>102.6925250056587</v>
+        <v>122.9572534352976</v>
       </c>
       <c r="BD5">
-        <v>109.2344606692472</v>
+        <v>72.77936288688451</v>
       </c>
       <c r="BE5">
-        <v>108.5332644723186</v>
+        <v>103.3407081868218</v>
       </c>
       <c r="BF5">
-        <v>150.6716968052137</v>
+        <v>111.5590232317882</v>
+      </c>
+      <c r="BG5">
+        <v>101.3139794300213</v>
       </c>
       <c r="BH5">
-        <v>140.2545037945516</v>
+        <v>99.4575883992099</v>
       </c>
       <c r="BI5">
-        <v>104.9053527809319</v>
+        <v>108.6253646382198</v>
       </c>
       <c r="BJ5">
-        <v>109.6614737838012</v>
+        <v>52.22384878157909</v>
+      </c>
+      <c r="BK5">
+        <v>149.44491110598</v>
       </c>
       <c r="BL5">
-        <v>79.81640655380647</v>
+        <v>66.60611471737558</v>
+      </c>
+      <c r="BM5">
+        <v>150.9904205979728</v>
+      </c>
+      <c r="BN5">
+        <v>91.08521017597958</v>
+      </c>
+      <c r="BO5">
+        <v>132.0858479321939</v>
       </c>
       <c r="BP5">
-        <v>108.5389875049152</v>
+        <v>125.863681749326</v>
+      </c>
+      <c r="BQ5">
+        <v>130.1405067247872</v>
       </c>
       <c r="BR5">
-        <v>99.20824299308192</v>
+        <v>88.69355939694202</v>
       </c>
       <c r="BS5">
-        <v>140.1277589736542</v>
+        <v>86.38913660798896</v>
+      </c>
+      <c r="BT5">
+        <v>81.47581590105506</v>
       </c>
       <c r="BU5">
-        <v>90.99617989717508</v>
+        <v>115.5800547412138</v>
       </c>
       <c r="BV5">
-        <v>66.41474394431253</v>
+        <v>113.9811967802124</v>
+      </c>
+      <c r="BW5">
+        <v>94.04310209464822</v>
       </c>
       <c r="BX5">
-        <v>110.6261069644914</v>
+        <v>89.5123516529282</v>
       </c>
       <c r="BY5">
-        <v>70.92233664047352</v>
-      </c>
-      <c r="CA5">
-        <v>62.01519520348931</v>
+        <v>99.89662691621569</v>
+      </c>
+      <c r="BZ5">
+        <v>129.9967605751925</v>
+      </c>
+      <c r="CB5">
+        <v>58.09078732403574</v>
       </c>
       <c r="CC5">
-        <v>102.9756193797743</v>
+        <v>139.5082040426027</v>
       </c>
       <c r="CD5">
-        <v>130.137873222449</v>
+        <v>107.0717851231933</v>
       </c>
       <c r="CE5">
-        <v>54.81977121154298</v>
+        <v>119.1078358116856</v>
+      </c>
+      <c r="CF5">
+        <v>123.8659113022986</v>
+      </c>
+      <c r="CG5">
+        <v>71.99632707019941</v>
       </c>
       <c r="CH5">
-        <v>59.26487309300655</v>
+        <v>123.7825016929967</v>
+      </c>
+      <c r="CI5">
+        <v>130.2762353612665</v>
       </c>
       <c r="CK5">
-        <v>63.6441232589363</v>
+        <v>112.740830520664</v>
+      </c>
+      <c r="CL5">
+        <v>127.4032886092284</v>
       </c>
       <c r="CM5">
-        <v>128.8119637954515</v>
+        <v>97.62143077768556</v>
       </c>
       <c r="CN5">
-        <v>124.7289167487225</v>
+        <v>111.9439083060073</v>
+      </c>
+      <c r="CO5">
+        <v>123.588407213288</v>
       </c>
       <c r="CP5">
-        <v>111.4699572450959</v>
+        <v>117.9363348611224</v>
+      </c>
+      <c r="CQ5">
+        <v>111.0502786507274</v>
+      </c>
+      <c r="CR5">
+        <v>102.8702440110943</v>
       </c>
       <c r="CS5">
-        <v>111.1283428723353</v>
+        <v>120.3496369458346</v>
+      </c>
+      <c r="CT5">
+        <v>125.1850163411283</v>
       </c>
       <c r="CU5">
-        <v>144.939534418142</v>
+        <v>61.5437207254756</v>
+      </c>
+      <c r="CV5">
+        <v>132.9435172585674</v>
       </c>
       <c r="CW5">
-        <v>125.1576986087573</v>
+        <v>91.88687552212691</v>
       </c>
     </row>
     <row r="6" spans="1:101">
@@ -1590,408 +1773,552 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>133.7814111690344</v>
+      </c>
+      <c r="D6">
+        <v>76.97502178262624</v>
+      </c>
+      <c r="E6">
         <v>122.9037794258486</v>
       </c>
-      <c r="C6">
+      <c r="F6">
+        <v>115.7200360465778</v>
+      </c>
+      <c r="H6">
+        <v>126.0083399432351</v>
+      </c>
+      <c r="I6">
+        <v>127.3466738590968</v>
+      </c>
+      <c r="J6">
         <v>65.89422863010715</v>
       </c>
-      <c r="D6">
-        <v>82.67218436149935</v>
-      </c>
-      <c r="F6">
+      <c r="K6">
         <v>106.8091106848828</v>
       </c>
-      <c r="G6">
-        <v>124.3756748211488</v>
-      </c>
-      <c r="H6">
+      <c r="L6">
+        <v>134.2689068334686</v>
+      </c>
+      <c r="M6">
+        <v>106.7158998444465</v>
+      </c>
+      <c r="N6">
         <v>106.577285246784</v>
       </c>
-      <c r="I6">
+      <c r="O6">
         <v>149.2253225701207</v>
       </c>
-      <c r="J6">
-        <v>116.1154016052954</v>
-      </c>
-      <c r="M6">
-        <v>115.7200360465778</v>
-      </c>
-      <c r="N6">
-        <v>65.63895011546857</v>
+      <c r="P6">
+        <v>116.6693220124949</v>
       </c>
       <c r="Q6">
-        <v>114.9903811612037</v>
-      </c>
-      <c r="S6">
-        <v>125.8007929634773</v>
-      </c>
-      <c r="T6">
-        <v>91.38924594167705</v>
+        <v>65.85693293604686</v>
+      </c>
+      <c r="V6">
+        <v>121.0493695768082</v>
       </c>
       <c r="W6">
-        <v>131.1076717404023</v>
-      </c>
-      <c r="X6">
-        <v>126.0083399432351</v>
+        <v>72.65213133959418</v>
       </c>
       <c r="Y6">
-        <v>100.0493843583689</v>
+        <v>121.0516963743885</v>
+      </c>
+      <c r="Z6">
+        <v>99.80425291726507</v>
       </c>
       <c r="AA6">
-        <v>132.3609250114807</v>
-      </c>
-      <c r="AB6">
-        <v>117.744987896185</v>
+        <v>54.24400308030048</v>
       </c>
       <c r="AC6">
-        <v>111.415589613116</v>
+        <v>131.4781807070945</v>
       </c>
       <c r="AD6">
-        <v>106.3281905767887</v>
+        <v>119.255138463041</v>
       </c>
       <c r="AE6">
-        <v>120.9463235260159</v>
+        <v>139.3440530616539</v>
+      </c>
+      <c r="AF6">
+        <v>121.7634241296455</v>
       </c>
       <c r="AG6">
-        <v>140.378603268701</v>
+        <v>95.2219228630136</v>
       </c>
       <c r="AH6">
-        <v>127.0463896479562</v>
+        <v>130.3994300400762</v>
+      </c>
+      <c r="AI6">
+        <v>88.24604944553325</v>
       </c>
       <c r="AJ6">
-        <v>121.7425256296537</v>
+        <v>85.5568982018697</v>
       </c>
       <c r="AK6">
-        <v>125.5403029658038</v>
+        <v>87.10612466987455</v>
+      </c>
+      <c r="AL6">
+        <v>139.4721764387431</v>
       </c>
       <c r="AM6">
-        <v>123.9504950327564</v>
+        <v>68.86149694405253</v>
       </c>
       <c r="AN6">
-        <v>123.2957552111155</v>
+        <v>99.9450450919104</v>
       </c>
       <c r="AO6">
-        <v>100.7720902389501</v>
+        <v>117.1866410300982</v>
       </c>
       <c r="AP6">
-        <v>131.034565093793</v>
+        <v>140.0646765792845</v>
       </c>
       <c r="AQ6">
-        <v>146.5097575373018</v>
+        <v>109.6601148837426</v>
       </c>
       <c r="AR6">
-        <v>90.13266088936588</v>
+        <v>109.8721857120975</v>
+      </c>
+      <c r="AS6">
+        <v>126.4690911867623</v>
+      </c>
+      <c r="AT6">
+        <v>110.2258918957609</v>
+      </c>
+      <c r="AU6">
+        <v>116.7953501545774</v>
       </c>
       <c r="AV6">
-        <v>126.3160907080677</v>
+        <v>69.49018432584782</v>
       </c>
       <c r="AW6">
-        <v>101.1233674255361</v>
+        <v>105.8947257983088</v>
       </c>
       <c r="AX6">
-        <v>93.73850548956857</v>
+        <v>99.19901649699152</v>
+      </c>
+      <c r="AY6">
+        <v>114.5767694748156</v>
+      </c>
+      <c r="AZ6">
+        <v>95.30112365180688</v>
       </c>
       <c r="BA6">
-        <v>115.8592720832703</v>
+        <v>71.84906107309573</v>
       </c>
       <c r="BB6">
-        <v>141.0560054164287</v>
+        <v>96.31759897205428</v>
+      </c>
+      <c r="BC6">
+        <v>106.9262402856126</v>
       </c>
       <c r="BD6">
-        <v>103.2290741218109</v>
+        <v>94.04533010825828</v>
       </c>
       <c r="BE6">
-        <v>103.2357386798337</v>
+        <v>112.1435091753849</v>
       </c>
       <c r="BF6">
-        <v>148.9866879045172</v>
+        <v>103.2944467833554</v>
       </c>
       <c r="BG6">
-        <v>128.1346321454065</v>
+        <v>84.66348162350563</v>
+      </c>
+      <c r="BH6">
+        <v>97.39825504486576</v>
       </c>
       <c r="BI6">
-        <v>98.58290371907444</v>
+        <v>100.3066698813127</v>
       </c>
       <c r="BJ6">
-        <v>99.29632143450624</v>
+        <v>74.27839047115403</v>
+      </c>
+      <c r="BK6">
+        <v>133.531761691096</v>
       </c>
       <c r="BL6">
-        <v>78.62149668645279</v>
+        <v>69.61167801838813</v>
+      </c>
+      <c r="BM6">
+        <v>139.8289496066598</v>
+      </c>
+      <c r="BN6">
+        <v>81.22395945030084</v>
       </c>
       <c r="BO6">
-        <v>91.12605462388616</v>
+        <v>117.054496932152</v>
+      </c>
+      <c r="BP6">
+        <v>114.0600077256244</v>
+      </c>
+      <c r="BQ6">
+        <v>117.0896325036053</v>
       </c>
       <c r="BR6">
-        <v>91.49901011020228</v>
+        <v>91.22377562995533</v>
       </c>
       <c r="BS6">
-        <v>140.5761106983369</v>
+        <v>124.6309215653711</v>
+      </c>
+      <c r="BT6">
+        <v>79.58360298931693</v>
       </c>
       <c r="BU6">
-        <v>101.7633246246895</v>
+        <v>137.6165750701302</v>
       </c>
       <c r="BV6">
-        <v>69.58813899637886</v>
+        <v>106.1786174936213</v>
+      </c>
+      <c r="BW6">
+        <v>87.23003823922762</v>
       </c>
       <c r="BX6">
-        <v>125.5744622002938</v>
+        <v>94.17475783041782</v>
       </c>
       <c r="BY6">
-        <v>55.08639545923305</v>
+        <v>69.84188115688687</v>
+      </c>
+      <c r="BZ6">
+        <v>132.9925227499495</v>
       </c>
       <c r="CA6">
-        <v>62.34324689655723</v>
+        <v>35.02046425187887</v>
+      </c>
+      <c r="CB6">
+        <v>56.93002134283202</v>
       </c>
       <c r="CC6">
-        <v>93.97291072641806</v>
+        <v>116.377892010211</v>
       </c>
       <c r="CD6">
-        <v>115.0355672378414</v>
+        <v>114.5500500300893</v>
       </c>
       <c r="CE6">
-        <v>24.26082341317132</v>
+        <v>111.3491756434053</v>
       </c>
       <c r="CF6">
-        <v>108.2072334501454</v>
+        <v>97.92040647492522</v>
+      </c>
+      <c r="CG6">
+        <v>67.12387199284977</v>
       </c>
       <c r="CH6">
-        <v>48.62937950159738</v>
+        <v>116.8893417932625</v>
       </c>
       <c r="CI6">
-        <v>111.8843523083359</v>
+        <v>132.6537222189716</v>
       </c>
       <c r="CJ6">
-        <v>115.7251486442804</v>
+        <v>83.25272453873012</v>
       </c>
       <c r="CK6">
-        <v>64.03016719779606</v>
+        <v>110.6967578332705</v>
       </c>
       <c r="CL6">
-        <v>100.9212821564463</v>
+        <v>120.659789860717</v>
       </c>
       <c r="CM6">
-        <v>126.4519215981364</v>
+        <v>91.93211499598388</v>
       </c>
       <c r="CN6">
-        <v>117.0039753159488</v>
+        <v>101.9585351150736</v>
+      </c>
+      <c r="CO6">
+        <v>116.5324403134108</v>
       </c>
       <c r="CP6">
-        <v>100.6234396409517</v>
+        <v>115.956676788057</v>
       </c>
       <c r="CQ6">
-        <v>130.4378838123617</v>
+        <v>110.2420197824532</v>
+      </c>
+      <c r="CR6">
+        <v>87.10404809963261</v>
       </c>
       <c r="CS6">
-        <v>91.6969374630021</v>
+        <v>102.1701437700585</v>
       </c>
       <c r="CT6">
-        <v>105.2820680602142</v>
+        <v>111.9736335346455</v>
+      </c>
+      <c r="CU6">
+        <v>42.70895165287343</v>
+      </c>
+      <c r="CV6">
+        <v>120.699010000786</v>
+      </c>
+      <c r="CW6">
+        <v>72.91998903557877</v>
       </c>
     </row>
     <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C7">
+        <v>124.8777045598066</v>
+      </c>
+      <c r="D7">
+        <v>113.8780915914658</v>
+      </c>
+      <c r="E7">
         <v>129.760987753694</v>
       </c>
-      <c r="C7">
+      <c r="F7">
+        <v>121.1592162427544</v>
+      </c>
+      <c r="H7">
+        <v>122.0584698633126</v>
+      </c>
+      <c r="J7">
         <v>104.0787409072929</v>
       </c>
-      <c r="D7">
-        <v>113.532206982148</v>
-      </c>
-      <c r="F7">
+      <c r="K7">
         <v>107.0378081090227</v>
       </c>
-      <c r="G7">
-        <v>120.9201109007862</v>
-      </c>
-      <c r="H7">
+      <c r="L7">
+        <v>128.0206002136762</v>
+      </c>
+      <c r="M7">
+        <v>109.9243282376578</v>
+      </c>
+      <c r="N7">
         <v>133.1660107439414</v>
       </c>
-      <c r="I7">
+      <c r="O7">
         <v>138.4475901553513</v>
       </c>
-      <c r="L7">
-        <v>103.196553505712</v>
-      </c>
-      <c r="N7">
-        <v>101.1620496908779</v>
-      </c>
-      <c r="R7">
-        <v>110.1340507861277</v>
+      <c r="P7">
+        <v>128.4693456299903</v>
+      </c>
+      <c r="Q7">
+        <v>101.3889413320141</v>
       </c>
       <c r="T7">
-        <v>114.4524760268725</v>
+        <v>146.3404272617921</v>
+      </c>
+      <c r="U7">
+        <v>105.4984657670143</v>
       </c>
       <c r="V7">
-        <v>113.9178329393242</v>
-      </c>
-      <c r="X7">
-        <v>122.0584698633126</v>
+        <v>121.3888473795419</v>
+      </c>
+      <c r="W7">
+        <v>100.3773089699034</v>
       </c>
       <c r="Y7">
-        <v>111.2977801470985</v>
+        <v>120.5688177953192</v>
       </c>
       <c r="Z7">
-        <v>118.537964157169</v>
+        <v>117.312611659488</v>
       </c>
       <c r="AA7">
-        <v>117.5736131262364</v>
+        <v>102.7407546410801</v>
       </c>
       <c r="AC7">
-        <v>121.0386557807778</v>
-      </c>
-      <c r="AD7">
-        <v>101.8482989315463</v>
+        <v>147.8642064145464</v>
       </c>
       <c r="AE7">
-        <v>112.6934603797834</v>
+        <v>128.949732701621</v>
+      </c>
+      <c r="AF7">
+        <v>121.8240900067053</v>
+      </c>
+      <c r="AG7">
+        <v>107.972995910299</v>
       </c>
       <c r="AH7">
-        <v>134.1061009283887</v>
+        <v>115.452513151087</v>
       </c>
       <c r="AI7">
-        <v>86.22506825265492</v>
+        <v>96.4735331252962</v>
       </c>
       <c r="AJ7">
-        <v>126.3320451312074</v>
+        <v>77.45277602472606</v>
       </c>
       <c r="AK7">
-        <v>111.0045922076882</v>
+        <v>97.75118216584042</v>
       </c>
       <c r="AL7">
-        <v>118.3300049213368</v>
+        <v>137.907429880975</v>
       </c>
       <c r="AM7">
-        <v>115.4938775479163</v>
+        <v>51.80384958557896</v>
       </c>
       <c r="AO7">
-        <v>94.44184931139084</v>
+        <v>120.8881253712186</v>
       </c>
       <c r="AP7">
-        <v>133.3960276084927</v>
+        <v>138.8362742713659</v>
       </c>
       <c r="AQ7">
-        <v>145.0038444728933</v>
+        <v>114.4111833403106</v>
       </c>
       <c r="AR7">
-        <v>120.97378245589</v>
+        <v>111.7108067735058</v>
+      </c>
+      <c r="AS7">
+        <v>116.9717627572148</v>
       </c>
       <c r="AT7">
-        <v>93.42054310641628</v>
+        <v>131.4727293846223</v>
+      </c>
+      <c r="AU7">
+        <v>127.0945406752352</v>
       </c>
       <c r="AV7">
-        <v>124.9371437040882</v>
+        <v>89.46253884754766</v>
       </c>
       <c r="AW7">
-        <v>105.5338478131153</v>
+        <v>113.2335913199245</v>
       </c>
       <c r="AX7">
-        <v>90.2945550526801</v>
+        <v>107.1323206047657</v>
+      </c>
+      <c r="AY7">
+        <v>116.65386523244</v>
       </c>
       <c r="AZ7">
-        <v>103.7683639921722</v>
+        <v>84.067672252113</v>
       </c>
       <c r="BA7">
-        <v>89.14345478900402</v>
+        <v>52.30182520128454</v>
       </c>
       <c r="BB7">
-        <v>146.5190321338318</v>
+        <v>103.7826326786621</v>
       </c>
       <c r="BC7">
-        <v>97.96178617773144</v>
+        <v>110.2393215592858</v>
+      </c>
+      <c r="BD7">
+        <v>64.19509347127361</v>
       </c>
       <c r="BE7">
-        <v>101.3784926308725</v>
+        <v>93.10220877493664</v>
       </c>
       <c r="BF7">
-        <v>130.948380990741</v>
+        <v>101.4195525454611</v>
       </c>
       <c r="BG7">
-        <v>104.3155556166277</v>
+        <v>100.4813109909759</v>
+      </c>
+      <c r="BH7">
+        <v>82.22259527220038</v>
       </c>
       <c r="BI7">
-        <v>96.75558043689502</v>
+        <v>98.05844066004244</v>
       </c>
       <c r="BJ7">
-        <v>101.4671242730876</v>
+        <v>45.2974285241396</v>
+      </c>
+      <c r="BK7">
+        <v>126.3036992415303</v>
       </c>
       <c r="BL7">
-        <v>82.17461946637432</v>
+        <v>63.86829927529004</v>
       </c>
       <c r="BM7">
-        <v>58.91152424006698</v>
+        <v>147.2765465341108</v>
+      </c>
+      <c r="BN7">
+        <v>90.16835188415298</v>
+      </c>
+      <c r="BO7">
+        <v>119.8735371119008</v>
+      </c>
+      <c r="BP7">
+        <v>109.4148551010198</v>
+      </c>
+      <c r="BQ7">
+        <v>128.6402428265696</v>
       </c>
       <c r="BR7">
-        <v>88.49371149324632</v>
+        <v>83.54199668443844</v>
       </c>
       <c r="BS7">
-        <v>128.8052880586114</v>
+        <v>74.61706840958109</v>
       </c>
       <c r="BT7">
-        <v>97.19554718750132</v>
+        <v>87.243805053486</v>
       </c>
       <c r="BU7">
-        <v>76.67333374436316</v>
+        <v>106.9554532616589</v>
       </c>
       <c r="BV7">
-        <v>72.86552533962964</v>
+        <v>106.3451011882781</v>
       </c>
       <c r="BW7">
-        <v>62.19391817667905</v>
+        <v>91.32092359074748</v>
       </c>
       <c r="BX7">
-        <v>104.8158081068188</v>
-      </c>
-      <c r="CA7">
-        <v>57.74072441132742</v>
+        <v>84.52545403243253</v>
+      </c>
+      <c r="BY7">
+        <v>105.4606723584966</v>
+      </c>
+      <c r="BZ7">
+        <v>125.0710382228195</v>
       </c>
       <c r="CB7">
-        <v>111.2869325042198</v>
+        <v>58.07825507790705</v>
       </c>
       <c r="CC7">
-        <v>100.8762287047375</v>
+        <v>102.9112153188544</v>
       </c>
       <c r="CD7">
-        <v>121.3880321518349</v>
+        <v>91.68961921232356</v>
       </c>
       <c r="CE7">
-        <v>39.11084007401968</v>
+        <v>110.9918436761139</v>
       </c>
       <c r="CF7">
-        <v>99.67220531089872</v>
+        <v>111.315448839906</v>
       </c>
       <c r="CG7">
-        <v>104.6100274877015</v>
+        <v>64.60129774780077</v>
       </c>
       <c r="CH7">
-        <v>68.64784598036786</v>
-      </c>
-      <c r="CJ7">
-        <v>112.3953454662246</v>
+        <v>111.245000754008</v>
+      </c>
+      <c r="CI7">
+        <v>120.8559759946007</v>
       </c>
       <c r="CK7">
-        <v>49.07755334473483</v>
+        <v>111.9100344962316</v>
+      </c>
+      <c r="CL7">
+        <v>112.4743616047229</v>
       </c>
       <c r="CM7">
-        <v>127.4900112765963</v>
+        <v>92.57712174673053</v>
       </c>
       <c r="CN7">
-        <v>111.4750621441194</v>
+        <v>103.880809221321</v>
+      </c>
+      <c r="CO7">
+        <v>120.9774227947412</v>
       </c>
       <c r="CP7">
-        <v>109.7958594321735</v>
+        <v>121.5122777308087</v>
       </c>
       <c r="CQ7">
-        <v>125.9408912922697</v>
+        <v>99.90806516539308</v>
+      </c>
+      <c r="CR7">
+        <v>96.41827409532074</v>
       </c>
       <c r="CS7">
-        <v>98.86663063666764</v>
+        <v>102.5863103897448</v>
+      </c>
+      <c r="CT7">
+        <v>113.266993804466</v>
+      </c>
+      <c r="CU7">
+        <v>70.64858367929601</v>
+      </c>
+      <c r="CV7">
+        <v>112.6522892668804</v>
       </c>
       <c r="CW7">
-        <v>116.9807461602138</v>
+        <v>77.23066129340343</v>
       </c>
     </row>
   </sheetData>
